--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/67_Samsun_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/67_Samsun_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2E1C32D-2988-486B-BAFB-F6F065E9881A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F32E50E-C4E6-4C60-B66D-E59ED9BB925B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{007E41CF-B7BC-4B79-B973-98208DBE7A2C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{F8468323-8421-4661-B1D8-E822B6EF0668}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -934,14 +934,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{5EE5F3E6-9C9D-4ED0-A59D-316FF44CD90C}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{33DD0E56-1A1E-485B-90AB-8016A1AB9617}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{59CA3BC1-F06B-4529-8F40-E102E94751DE}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{95B0B26D-9959-4767-AF9B-2B3EC8648356}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F54BFA76-3439-4D15-A2BD-D5C4D84BC2FA}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{EA4A06F9-17DC-405F-BC44-3A1D24307DDB}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{411B7205-7A72-4FEF-A363-F731250C704A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{CCD7F65C-9AD7-4BFA-BBF5-3D01966E33CE}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{ED42E9CF-1E22-4265-AAB9-A63C7F9D2EFA}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{22F3EFAB-2672-48D9-9EB2-68A5D8A5EF08}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{EBE7E511-A8B7-4B15-BA99-0D7B488398D2}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{28CF51DC-A790-46D5-AC06-3C0F8CD5DC53}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{7104F0EA-19A0-4799-9FB0-2C060A325A74}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{08230412-3DA7-4FFC-B361-E820C5DD1E3C}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{92B7B3EF-B25E-4977-A93A-D0433BB11C64}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{FA5A040E-11CC-4E33-A524-1A1921782A14}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1311,7 +1311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984593D1-C5E7-463A-818C-F3B041319E7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF47E89-313E-4B95-A0E4-E44E22689B4C}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -2619,7 +2619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E915156-A550-4B7C-AE56-D91E2DCB2242}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11150092-4300-4884-BA1A-EF999FFD91C5}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3925,7 +3925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1095E6C0-647D-4221-A446-E8E9FA497904}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1467952-A595-4990-8630-566F310AD678}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5229,7 +5229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE942C76-0EC5-444B-9425-F09709A8FAF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F29B0EA-FD23-4C0F-97C2-8BEB9F478A39}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6529,7 +6529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AD4084-43E3-4BDB-9C39-AFA455D1B9E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B674B7-E890-483F-8204-4D3E4D824DFB}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -7835,7 +7835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBED7177-0D3C-438E-8F9F-3C581B5DBFD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FD0B9-EC31-4D99-B87D-929F502A08DE}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -9143,7 +9143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6F1567-4C6D-4DE9-A8A3-0ABEFA3A8700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA83F19-F82C-4221-B284-CFFC63B79683}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10451,7 +10451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8324F719-5157-4027-9DBF-55A0883FCF03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F764A935-E097-4581-AE6D-9C3765099808}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11757,7 +11757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3149643-4505-4A2E-A2ED-90772ADA3112}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A076CC47-D678-48B7-80B4-3C702E94EFBB}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -13063,7 +13063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAA3754-E7BD-4C0E-9951-6A3EA97B6C53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E275F0-C9B6-409E-8A7E-B26BB93E99EC}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14371,7 +14371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3744D5B1-8F6E-4A95-909A-56685D5453FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CBD36B-9330-4B4E-9161-DC07B6F27E0C}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15677,7 +15677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A070B4F-1626-4589-9F50-09C4DBCDB879}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C03148F-AB3D-4E9A-A761-387A6670FA9C}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
